--- a/reference Excel sheets/sorting schedule.xlsx
+++ b/reference Excel sheets/sorting schedule.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritup\projects\excel sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranajit jana\Documents\GitHub\examples\reference Excel sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF294DEC-A731-4F10-9881-BA61C0285382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272BDEC1-A8A2-4147-9DC6-F1CECCFC24DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{947BFA0B-75DC-43FC-B5E8-7A909E151729}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{947BFA0B-75DC-43FC-B5E8-7A909E151729}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sorting_new" sheetId="1" r:id="rId1"/>
+    <sheet name="months" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t xml:space="preserve">    Name</t>
   </si>
@@ -153,16 +157,118 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Electricity bill</t>
+  </si>
+  <si>
+    <t>Water bill</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>tue</t>
+  </si>
+  <si>
+    <t>wed</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>fri</t>
+  </si>
+  <si>
+    <t>0800-0900</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>0930-1030</t>
+  </si>
+  <si>
+    <t>uipath</t>
+  </si>
+  <si>
+    <t>1030-1130</t>
+  </si>
+  <si>
+    <t>1200-1330</t>
+  </si>
+  <si>
+    <t>maintainence bill</t>
+  </si>
+  <si>
+    <t>kids tution bill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,9 +294,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA765A-8CFA-494C-9AEE-823067604C37}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,4 +1052,407 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC7A3C-5A73-4960-AA56-281154F84817}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>2500</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>7500</v>
+      </c>
+      <c r="F2">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>2300</v>
+      </c>
+      <c r="D3">
+        <v>800</v>
+      </c>
+      <c r="E3">
+        <v>7500</v>
+      </c>
+      <c r="F3">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>2343</v>
+      </c>
+      <c r="D4">
+        <v>850</v>
+      </c>
+      <c r="E4">
+        <v>7500</v>
+      </c>
+      <c r="F4">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>2256</v>
+      </c>
+      <c r="D5">
+        <v>650</v>
+      </c>
+      <c r="E5">
+        <v>7500</v>
+      </c>
+      <c r="F5">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>2150</v>
+      </c>
+      <c r="D6">
+        <v>700</v>
+      </c>
+      <c r="E6">
+        <v>7500</v>
+      </c>
+      <c r="F6">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>2458</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>7500</v>
+      </c>
+      <c r="F7">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>2500</v>
+      </c>
+      <c r="D8">
+        <v>987</v>
+      </c>
+      <c r="E8">
+        <v>7500</v>
+      </c>
+      <c r="F8">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>2389</v>
+      </c>
+      <c r="D9">
+        <v>876</v>
+      </c>
+      <c r="E9">
+        <v>7500</v>
+      </c>
+      <c r="F9">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>2399</v>
+      </c>
+      <c r="D10">
+        <v>964</v>
+      </c>
+      <c r="E10">
+        <v>7500</v>
+      </c>
+      <c r="F10">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>2489</v>
+      </c>
+      <c r="D11">
+        <v>765</v>
+      </c>
+      <c r="E11">
+        <v>7500</v>
+      </c>
+      <c r="F11">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>2550</v>
+      </c>
+      <c r="D12">
+        <v>1100</v>
+      </c>
+      <c r="E12">
+        <v>7500</v>
+      </c>
+      <c r="F12">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>2465</v>
+      </c>
+      <c r="D13">
+        <v>958</v>
+      </c>
+      <c r="E13">
+        <v>7500</v>
+      </c>
+      <c r="F13">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89AC439-3DEA-4C37-B054-058EE79B425C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>